--- a/data analytics, galaxy s8 s9.xlsx
+++ b/data analytics, galaxy s8 s9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trends data" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t>Week</t>
   </si>
@@ -123,12 +123,84 @@
   <si>
     <t>23.8</t>
   </si>
+  <si>
+    <t>https://www.strategyanalytics.com/strategy-analytics/news/strategy-analytics-press-releases/2017/08/16/sa-samsung-galaxy-s8-becomes-world's-best-selling-android-smartphone-in-q2-2017</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>https://pocketnow.com/iphone-7-best-selling-smartphone-q3-2017-iphone-6s-iphone-8-plus</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>samsung galaxy s8/s8+</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/864691/samsung-galaxy-s-series-smartphone-shipments-worldwide/</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>totral annual sales - Q2 -Q3</t>
+  </si>
+  <si>
+    <t>samsung galaxy s9/s9+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.androidheadlines.com/2018/07/report-samsung-galaxy-s9-q2-2018-shipments-less-than-q1.html; </t>
+  </si>
+  <si>
+    <t>https://www.androidheadlines.com/2018/07/report-samsung-galaxy-s9-q2-2018-shipments-less-than-q1.html; https://www.express.co.uk/life-style/science-technology/993048/Samsung-Galaxy-S8-continues-to-beat-Galaxy-S9-in-sales-ahead-of-Galaxy-Note-9-launch</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>http://www.thebell.co.kr/free/content/ArticleView.asp?key=201807170100030780001964&amp;lcode=00</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>http://www.thebell.co.kr/free/content/ArticleView.asp?key=201807170100030780001964&amp;lcode=01</t>
+  </si>
+  <si>
+    <t>http://www.thebell.co.kr/free/content/ArticleView.asp?key=201807170100030780001964&amp;lcode=02</t>
+  </si>
+  <si>
+    <t>http://www.thebell.co.kr/free/content/ArticleView.asp?key=201807170100030780001964&amp;lcode=03</t>
+  </si>
+  <si>
+    <t>http://www.thebell.co.kr/free/content/ArticleView.asp?key=201807170100030780001964&amp;lcode=04</t>
+  </si>
+  <si>
+    <t>http://www.thebell.co.kr/free/content/ArticleView.asp?key=201807170100030780001964&amp;lcode=05</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +229,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,10 +290,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,8 +322,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8518,7 +8623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -11359,38 +11464,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="145.7109375" customWidth="1"/>
+    <col min="5" max="5" width="172.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>2017</v>
       </c>
@@ -11403,8 +11513,10 @@
       <c r="D2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -11415,11 +11527,12 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -11430,11 +11543,12 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -11445,11 +11559,12 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2018</v>
       </c>
@@ -11462,11 +11577,12 @@
       <c r="D6" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -11477,11 +11593,12 @@
       <c r="D7" s="5">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -11492,8 +11609,10 @@
       <c r="D8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -11504,13 +11623,314 @@
       <c r="D9" s="7">
         <v>0</v>
       </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2" display="https://www.androidheadlines.com/2018/07/report-samsung-galaxy-s9-q2-2018-shipments-less-than-q1.html; "/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>